--- a/Trabalho de Estatística - Dados.xlsx
+++ b/Trabalho de Estatística - Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD9695DC-07BA-4658-8A1A-8859754E58AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{097F9819-F30C-42E6-9C9D-CDEBEAF8D1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="20">
   <si>
     <t>Faixa salarial</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Grupo</t>
+  </si>
+  <si>
+    <t>Satisfeito</t>
+  </si>
+  <si>
+    <t>Insatisfeito</t>
   </si>
 </sst>
 </file>
@@ -1077,12 +1083,13 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1092,11 +1099,11 @@
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13">
-        <v>0</v>
+      <c r="C1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>15</v>
